--- a/Simplified Data - Encaissements Avance.xlsx
+++ b/Simplified Data - Encaissements Avance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eurisko\Desktop\RaMy\Personal\SH\Tableau de Bord\Simplified Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnny.abouhaidar\Desktop\myfiles\dataentry_flask_automation_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFFE74E8-877E-4AF4-A96D-8DF895BDAB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9DC328-1B28-4558-BD23-6367D510A2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8CF385C-1E85-4338-B512-43B7D949CFDE}"/>
+    <workbookView xWindow="1290" yWindow="-120" windowWidth="27630" windowHeight="16440" xr2:uid="{E8CF385C-1E85-4338-B512-43B7D949CFDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -743,20 +743,20 @@
   <dimension ref="A1:E346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C256" sqref="C256"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -772,7 +772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44581</v>
       </c>
@@ -786,7 +786,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44574</v>
       </c>
@@ -800,7 +800,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44592</v>
       </c>
@@ -814,7 +814,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44564</v>
       </c>
@@ -828,7 +828,7 @@
         <v>342.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44566</v>
       </c>
@@ -842,7 +842,7 @@
         <v>1849.17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44567</v>
       </c>
@@ -856,7 +856,7 @@
         <v>3862.9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44567</v>
       </c>
@@ -870,7 +870,7 @@
         <v>147.07</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44571</v>
       </c>
@@ -884,7 +884,7 @@
         <v>883.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44572</v>
       </c>
@@ -898,7 +898,7 @@
         <v>291.2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44572</v>
       </c>
@@ -912,7 +912,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44572</v>
       </c>
@@ -926,7 +926,7 @@
         <v>147.07</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44573</v>
       </c>
@@ -940,7 +940,7 @@
         <v>182.9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44573</v>
       </c>
@@ -954,7 +954,7 @@
         <v>2204.3200000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44574</v>
       </c>
@@ -968,7 +968,7 @@
         <v>219.6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44580</v>
       </c>
@@ -982,7 +982,7 @@
         <v>1744.77</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44581</v>
       </c>
@@ -996,7 +996,7 @@
         <v>245.2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44581</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44582</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>199.6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44582</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44585</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>1033.8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44585</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>147.07</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44586</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>2123.6999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44587</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>521.6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44587</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>2473.33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44589</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44589</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>147.07</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44591</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44592</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>570.15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44608</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44620</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44594</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>1836.57</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44594</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>305.45</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44595</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44596</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>1037.3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44599</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>602.79999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44601</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>1882.91</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44602</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>147.07</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44604</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44606</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>854.75</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44607</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>317.2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44608</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>2396.14</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44609</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>139.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44609</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>441.22</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44613</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>603.20000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44615</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44615</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>766.73</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44616</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>387.1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44616</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>147.07</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44616</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44620</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>2764.95</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44637</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44648</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44651</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>3541.95</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44651</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44622</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>2162.5700000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44623</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>476.2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44627</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44627</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>1253.7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44629</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>1969.24</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44630</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>772.25</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44634</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>1518.7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44635</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>147.07</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44636</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>1297.17</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44637</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>761.7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44642</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>162.47</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44643</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>2269.88</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44645</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>567.4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44646</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>271.89999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44648</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>636.54999999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44648</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>366.2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44650</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>2974.53</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44651</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>221.6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44657</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>2093.35</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44657</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>17861.099999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44665</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44673</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>634.70000000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44676</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>115.5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44677</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44680</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>44652</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>509.2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>44655</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>3031.45</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>44656</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>1940.7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>44657</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>2018.86</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>44657</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>162.37</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>44658</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>44659</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>2019.6</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>44662</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>260.7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>44662</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>294.14999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>44663</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>238.8</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>44663</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>245.12</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>44664</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>109.8</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>44664</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>3200.32</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>44664</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>44670</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>1144.95</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>44670</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>2086.42</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>44670</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>124.95</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>44670</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>1406.42</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>44671</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>146.55000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>44672</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>379.75</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>44673</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>334.65</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>44673</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>2620.61</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>44673</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>298.18</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>44676</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>632.9</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>44677</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>1085.0999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>44678</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>270.3</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>44678</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>44680</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>554.29999999999995</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>44680</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>1058.25</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>44680</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>2152.6999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>44680</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>506.58</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>44685</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>44698</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>7850</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>44704</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>44706</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>44712</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>44712</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>44683</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>355.6</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>44684</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>945.95</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>44685</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>2498.4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>44686</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>6180.4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>44686</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>301.60000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>44687</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>288.8</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>44687</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>1368.92</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>44687</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>2243.0300000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>44687</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>1107.75</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>44687</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>360.73</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>44690</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>360.3</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>44691</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>125.5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>44692</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>49.02</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>44693</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>44694</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>1354.9</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>44694</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>703.78</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>44694</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>4066.13</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>44695</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>44697</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>44700</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>155.19999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>44701</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>286.37</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>44701</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>944.96</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>44701</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>1549.98</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>44703</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>179.6</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>44705</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>624.1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>44706</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>44708</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>1224.05</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>44711</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>612.54999999999995</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>44711</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>980.89</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>44711</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>1766.08</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>44711</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>793.05</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>44712</v>
       </c>
@@ -2844,8 +2844,8 @@
         <v>475</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
         <v>44729</v>
       </c>
       <c r="B150" t="s">
@@ -2858,8 +2858,8 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
         <v>44729</v>
       </c>
       <c r="B151" t="s">
@@ -2872,8 +2872,8 @@
         <v>886.7</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
         <v>44742</v>
       </c>
       <c r="B152" t="s">
@@ -2886,8 +2886,8 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
         <v>44742</v>
       </c>
       <c r="B153" t="s">
@@ -2900,8 +2900,8 @@
         <v>750</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
         <v>44742</v>
       </c>
       <c r="B154" t="s">
@@ -2914,8 +2914,8 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
         <v>44713</v>
       </c>
       <c r="B155" t="s">
@@ -2928,8 +2928,8 @@
         <v>3262.7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
         <v>44713</v>
       </c>
       <c r="B156" t="s">
@@ -2942,8 +2942,8 @@
         <v>147.07</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
         <v>44714</v>
       </c>
       <c r="B157" t="s">
@@ -2956,8 +2956,8 @@
         <v>2429.5</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
         <v>44715</v>
       </c>
       <c r="B158" t="s">
@@ -2970,8 +2970,8 @@
         <v>649.5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
         <v>44715</v>
       </c>
       <c r="B159" t="s">
@@ -2984,8 +2984,8 @@
         <v>244.84</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
         <v>44715</v>
       </c>
       <c r="B160" t="s">
@@ -2998,8 +2998,8 @@
         <v>270.61</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
         <v>44715</v>
       </c>
       <c r="B161" t="s">
@@ -3012,8 +3012,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
         <v>44719</v>
       </c>
       <c r="B162" t="s">
@@ -3026,8 +3026,8 @@
         <v>639.70000000000005</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
         <v>44721</v>
       </c>
       <c r="B163" t="s">
@@ -3040,8 +3040,8 @@
         <v>4916.55</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
         <v>44721</v>
       </c>
       <c r="B164" t="s">
@@ -3054,8 +3054,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
         <v>44722</v>
       </c>
       <c r="B165" t="s">
@@ -3068,8 +3068,8 @@
         <v>335.02</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
         <v>44722</v>
       </c>
       <c r="B166" t="s">
@@ -3082,8 +3082,8 @@
         <v>3024.41</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
         <v>44723</v>
       </c>
       <c r="B167" t="s">
@@ -3096,8 +3096,8 @@
         <v>648.6</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
         <v>44725</v>
       </c>
       <c r="B168" t="s">
@@ -3110,8 +3110,8 @@
         <v>3913.1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
         <v>44727</v>
       </c>
       <c r="B169" t="s">
@@ -3124,8 +3124,8 @@
         <v>246.7</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
         <v>44728</v>
       </c>
       <c r="B170" t="s">
@@ -3138,8 +3138,8 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
         <v>44728</v>
       </c>
       <c r="B171" t="s">
@@ -3152,8 +3152,8 @@
         <v>767.2</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
         <v>44729</v>
       </c>
       <c r="B172" t="s">
@@ -3166,8 +3166,8 @@
         <v>697.6</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
         <v>44732</v>
       </c>
       <c r="B173" t="s">
@@ -3180,8 +3180,8 @@
         <v>500.95</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
         <v>44732</v>
       </c>
       <c r="B174" t="s">
@@ -3194,8 +3194,8 @@
         <v>926.63</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
         <v>44732</v>
       </c>
       <c r="B175" t="s">
@@ -3208,8 +3208,8 @@
         <v>690.44</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
         <v>44732</v>
       </c>
       <c r="B176" t="s">
@@ -3222,8 +3222,8 @@
         <v>1010.1</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
         <v>44733</v>
       </c>
       <c r="B177" t="s">
@@ -3236,8 +3236,8 @@
         <v>555.04999999999995</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
         <v>44734</v>
       </c>
       <c r="B178" t="s">
@@ -3250,8 +3250,8 @@
         <v>125.5</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
         <v>44736</v>
       </c>
       <c r="B179" t="s">
@@ -3264,8 +3264,8 @@
         <v>1276.1500000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
         <v>44736</v>
       </c>
       <c r="B180" t="s">
@@ -3278,8 +3278,8 @@
         <v>205.69</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
         <v>44736</v>
       </c>
       <c r="B181" t="s">
@@ -3292,8 +3292,8 @@
         <v>149.22999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
         <v>44739</v>
       </c>
       <c r="B182" t="s">
@@ -3306,8 +3306,8 @@
         <v>1063.4000000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
         <v>44740</v>
       </c>
       <c r="B183" t="s">
@@ -3320,8 +3320,8 @@
         <v>3800.5</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
         <v>44741</v>
       </c>
       <c r="B184" t="s">
@@ -3334,8 +3334,8 @@
         <v>376.55</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
         <v>44742</v>
       </c>
       <c r="B185" t="s">
@@ -3348,8 +3348,8 @@
         <v>1375.7</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
         <v>44760</v>
       </c>
       <c r="B186" t="s">
@@ -3362,8 +3362,8 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
         <v>44757</v>
       </c>
       <c r="B187" t="s">
@@ -3376,8 +3376,8 @@
         <v>5208.75</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
         <v>44762</v>
       </c>
       <c r="B188" t="s">
@@ -3390,8 +3390,8 @@
         <v>895</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
         <v>44763</v>
       </c>
       <c r="B189" t="s">
@@ -3404,8 +3404,8 @@
         <v>1244.95</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
         <v>44767</v>
       </c>
       <c r="B190" t="s">
@@ -3418,8 +3418,8 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
         <v>44771</v>
       </c>
       <c r="B191" t="s">
@@ -3432,8 +3432,8 @@
         <v>750</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
         <v>44771</v>
       </c>
       <c r="B192" t="s">
@@ -3446,8 +3446,8 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
         <v>44743</v>
       </c>
       <c r="B193" t="s">
@@ -3460,8 +3460,8 @@
         <v>1190.8</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
         <v>44743</v>
       </c>
       <c r="B194" t="s">
@@ -3474,8 +3474,8 @@
         <v>1030.42</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
         <v>44743</v>
       </c>
       <c r="B195" t="s">
@@ -3488,8 +3488,8 @@
         <v>1616.72</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
         <v>44743</v>
       </c>
       <c r="B196" t="s">
@@ -3502,8 +3502,8 @@
         <v>216.98</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
         <v>44746</v>
       </c>
       <c r="B197" t="s">
@@ -3516,8 +3516,8 @@
         <v>857.15</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
         <v>44747</v>
       </c>
       <c r="B198" t="s">
@@ -3530,8 +3530,8 @@
         <v>141.30000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
         <v>44748</v>
       </c>
       <c r="B199" t="s">
@@ -3544,8 +3544,8 @@
         <v>147.07</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
         <v>44748</v>
       </c>
       <c r="B200" t="s">
@@ -3558,8 +3558,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
         <v>44749</v>
       </c>
       <c r="B201" t="s">
@@ -3572,8 +3572,8 @@
         <v>188.4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
         <v>44750</v>
       </c>
       <c r="B202" t="s">
@@ -3586,8 +3586,8 @@
         <v>1126.78</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
         <v>44750</v>
       </c>
       <c r="B203" t="s">
@@ -3600,8 +3600,8 @@
         <v>644.36</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
         <v>44753</v>
       </c>
       <c r="B204" t="s">
@@ -3614,8 +3614,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
         <v>44755</v>
       </c>
       <c r="B205" t="s">
@@ -3628,8 +3628,8 @@
         <v>1122.5999999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
         <v>44757</v>
       </c>
       <c r="B206" t="s">
@@ -3642,8 +3642,8 @@
         <v>398.45</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
         <v>44757</v>
       </c>
       <c r="B207" t="s">
@@ -3656,8 +3656,8 @@
         <v>1184.03</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
         <v>44757</v>
       </c>
       <c r="B208" t="s">
@@ -3670,8 +3670,8 @@
         <v>1036.6300000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
         <v>44757</v>
       </c>
       <c r="B209" t="s">
@@ -3684,8 +3684,8 @@
         <v>763.62</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
         <v>44760</v>
       </c>
       <c r="B210" t="s">
@@ -3698,8 +3698,8 @@
         <v>414.9</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
         <v>44761</v>
       </c>
       <c r="B211" t="s">
@@ -3712,8 +3712,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
         <v>44762</v>
       </c>
       <c r="B212" t="s">
@@ -3726,8 +3726,8 @@
         <v>1654.7</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
         <v>44764</v>
       </c>
       <c r="B213" t="s">
@@ -3740,8 +3740,8 @@
         <v>169.2</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
         <v>44764</v>
       </c>
       <c r="B214" t="s">
@@ -3754,8 +3754,8 @@
         <v>378.14</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
         <v>44767</v>
       </c>
       <c r="B215" t="s">
@@ -3768,8 +3768,8 @@
         <v>850.55</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
         <v>44768</v>
       </c>
       <c r="B216" t="s">
@@ -3782,8 +3782,8 @@
         <v>245.2</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
         <v>44770</v>
       </c>
       <c r="B217" t="s">
@@ -3796,8 +3796,8 @@
         <v>933.95</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
         <v>44770</v>
       </c>
       <c r="B218" t="s">
@@ -3810,8 +3810,8 @@
         <v>172.7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
         <v>44771</v>
       </c>
       <c r="B219" t="s">
@@ -3824,8 +3824,8 @@
         <v>1306.5999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
         <v>44771</v>
       </c>
       <c r="B220" t="s">
@@ -3838,8 +3838,8 @@
         <v>49.75</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
         <v>44771</v>
       </c>
       <c r="B221" t="s">
@@ -3852,8 +3852,8 @@
         <v>188.4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
         <v>44771</v>
       </c>
       <c r="B222" t="s">
@@ -3866,8 +3866,8 @@
         <v>149.22999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
         <v>44775</v>
       </c>
       <c r="B223" t="s">
@@ -3880,8 +3880,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A224">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
         <v>44777</v>
       </c>
       <c r="B224" t="s">
@@ -3894,8 +3894,8 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
         <v>44791</v>
       </c>
       <c r="B225" t="s">
@@ -3908,8 +3908,8 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
         <v>44802</v>
       </c>
       <c r="B226" t="s">
@@ -3922,8 +3922,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
         <v>44798</v>
       </c>
       <c r="B227" t="s">
@@ -3936,8 +3936,8 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
         <v>44804</v>
       </c>
       <c r="B228" t="s">
@@ -3950,8 +3950,8 @@
         <v>750</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
         <v>44804</v>
       </c>
       <c r="B229" t="s">
@@ -3964,8 +3964,8 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
         <v>44775</v>
       </c>
       <c r="B230" t="s">
@@ -3978,8 +3978,8 @@
         <v>1351.1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
         <v>44775</v>
       </c>
       <c r="B231" t="s">
@@ -3992,8 +3992,8 @@
         <v>277.3</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
         <v>44777</v>
       </c>
       <c r="B232" t="s">
@@ -4006,8 +4006,8 @@
         <v>341.9</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
         <v>44778</v>
       </c>
       <c r="B233" t="s">
@@ -4020,8 +4020,8 @@
         <v>432.45</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
         <v>44778</v>
       </c>
       <c r="B234" t="s">
@@ -4034,8 +4034,8 @@
         <v>408.79</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
         <v>44781</v>
       </c>
       <c r="B235" t="s">
@@ -4048,8 +4048,8 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
         <v>44781</v>
       </c>
       <c r="B236" t="s">
@@ -4062,8 +4062,8 @@
         <v>357.6</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
         <v>44783</v>
       </c>
       <c r="B237" t="s">
@@ -4076,8 +4076,8 @@
         <v>489.9</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
         <v>44783</v>
       </c>
       <c r="B238" t="s">
@@ -4090,8 +4090,8 @@
         <v>169.2</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
         <v>44785</v>
       </c>
       <c r="B239" t="s">
@@ -4104,8 +4104,8 @@
         <v>611.37</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A240">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
         <v>44785</v>
       </c>
       <c r="B240" t="s">
@@ -4118,8 +4118,8 @@
         <v>415.32</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
         <v>44785</v>
       </c>
       <c r="B241" t="s">
@@ -4132,8 +4132,8 @@
         <v>1558.46</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
         <v>44788</v>
       </c>
       <c r="B242" t="s">
@@ -4146,8 +4146,8 @@
         <v>617.4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
         <v>44789</v>
       </c>
       <c r="B243" t="s">
@@ -4160,8 +4160,8 @@
         <v>169.2</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
         <v>44791</v>
       </c>
       <c r="B244" t="s">
@@ -4174,8 +4174,8 @@
         <v>176.15</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
         <v>44792</v>
       </c>
       <c r="B245" t="s">
@@ -4188,8 +4188,8 @@
         <v>465.5</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
         <v>44792</v>
       </c>
       <c r="B246" t="s">
@@ -4202,8 +4202,8 @@
         <v>1312.62</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
         <v>44792</v>
       </c>
       <c r="B247" t="s">
@@ -4216,8 +4216,8 @@
         <v>878.19</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
         <v>44792</v>
       </c>
       <c r="B248" t="s">
@@ -4230,8 +4230,8 @@
         <v>489.18</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
         <v>44795</v>
       </c>
       <c r="B249" t="s">
@@ -4244,8 +4244,8 @@
         <v>1670.2</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
         <v>44795</v>
       </c>
       <c r="B250" t="s">
@@ -4258,8 +4258,8 @@
         <v>718.3</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
         <v>44796</v>
       </c>
       <c r="B251" t="s">
@@ -4272,8 +4272,8 @@
         <v>550.95000000000005</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
         <v>44796</v>
       </c>
       <c r="B252" t="s">
@@ -4286,8 +4286,8 @@
         <v>247.65</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
         <v>44797</v>
       </c>
       <c r="B253" t="s">
@@ -4300,8 +4300,8 @@
         <v>380.45</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
         <v>44798</v>
       </c>
       <c r="B254" t="s">
@@ -4314,8 +4314,8 @@
         <v>170.8</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
         <v>44799</v>
       </c>
       <c r="B255" t="s">
@@ -4328,8 +4328,8 @@
         <v>568.5</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
         <v>44799</v>
       </c>
       <c r="B256" t="s">
@@ -4342,8 +4342,8 @@
         <v>477.08</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
         <v>44799</v>
       </c>
       <c r="B257" t="s">
@@ -4356,8 +4356,8 @@
         <v>1229.92</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
         <v>44799</v>
       </c>
       <c r="B258" t="s">
@@ -4370,8 +4370,8 @@
         <v>573.91999999999996</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
         <v>44802</v>
       </c>
       <c r="B259" t="s">
@@ -4384,8 +4384,8 @@
         <v>706.2</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
         <v>44803</v>
       </c>
       <c r="B260" t="s">
@@ -4398,8 +4398,8 @@
         <v>889.3</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
         <v>44804</v>
       </c>
       <c r="B261" t="s">
@@ -4412,8 +4412,8 @@
         <v>1321.9</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
         <v>44827</v>
       </c>
       <c r="B262" t="s">
@@ -4426,8 +4426,8 @@
         <v>959.25</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
         <v>44817</v>
       </c>
       <c r="B263" t="s">
@@ -4440,8 +4440,8 @@
         <v>489</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
         <v>44806</v>
       </c>
       <c r="B264" t="s">
@@ -4454,8 +4454,8 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
         <v>44826</v>
       </c>
       <c r="B265" t="s">
@@ -4468,8 +4468,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="2">
         <v>44823</v>
       </c>
       <c r="B266" t="s">
@@ -4482,8 +4482,8 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="2">
         <v>44831</v>
       </c>
       <c r="B267" t="s">
@@ -4496,8 +4496,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
         <v>44833</v>
       </c>
       <c r="B268" t="s">
@@ -4510,8 +4510,8 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
         <v>44827</v>
       </c>
       <c r="B269" t="s">
@@ -4524,8 +4524,8 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="2">
         <v>44834</v>
       </c>
       <c r="B270" t="s">
@@ -4538,8 +4538,8 @@
         <v>750</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
         <v>44834</v>
       </c>
       <c r="B271" t="s">
@@ -4552,8 +4552,8 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
         <v>44805</v>
       </c>
       <c r="B272" t="s">
@@ -4566,8 +4566,8 @@
         <v>3077.4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
         <v>44809</v>
       </c>
       <c r="B273" t="s">
@@ -4580,8 +4580,8 @@
         <v>1010.85</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
         <v>44806</v>
       </c>
       <c r="B274" t="s">
@@ -4594,8 +4594,8 @@
         <v>176.15</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
         <v>44806</v>
       </c>
       <c r="B275" t="s">
@@ -4608,8 +4608,8 @@
         <v>1429.17</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
         <v>44806</v>
       </c>
       <c r="B276" t="s">
@@ -4622,8 +4622,8 @@
         <v>1997.05</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
         <v>44810</v>
       </c>
       <c r="B277" t="s">
@@ -4636,8 +4636,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
         <v>44809</v>
       </c>
       <c r="B278" t="s">
@@ -4650,8 +4650,8 @@
         <v>1007.1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
         <v>44810</v>
       </c>
       <c r="B279" t="s">
@@ -4664,8 +4664,8 @@
         <v>1255.2</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
         <v>44811</v>
       </c>
       <c r="B280" t="s">
@@ -4678,8 +4678,8 @@
         <v>2636.2</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
         <v>44812</v>
       </c>
       <c r="B281" t="s">
@@ -4692,8 +4692,8 @@
         <v>294.14999999999998</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
         <v>44813</v>
       </c>
       <c r="B282" t="s">
@@ -4706,8 +4706,8 @@
         <v>502</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
         <v>44813</v>
       </c>
       <c r="B283" t="s">
@@ -4720,8 +4720,8 @@
         <v>831.66</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
         <v>44813</v>
       </c>
       <c r="B284" t="s">
@@ -4734,8 +4734,8 @@
         <v>223.45</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
         <v>44817</v>
       </c>
       <c r="B285" t="s">
@@ -4748,8 +4748,8 @@
         <v>176.15</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
         <v>44820</v>
       </c>
       <c r="B286" t="s">
@@ -4762,8 +4762,8 @@
         <v>488.1</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
         <v>44820</v>
       </c>
       <c r="B287" t="s">
@@ -4776,8 +4776,8 @@
         <v>251.51</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
         <v>44820</v>
       </c>
       <c r="B288" t="s">
@@ -4790,8 +4790,8 @@
         <v>437.91</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
         <v>44820</v>
       </c>
       <c r="B289" t="s">
@@ -4804,8 +4804,8 @@
         <v>169.97</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
         <v>44823</v>
       </c>
       <c r="B290" t="s">
@@ -4818,8 +4818,8 @@
         <v>421.8</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
         <v>44825</v>
       </c>
       <c r="B291" t="s">
@@ -4832,8 +4832,8 @@
         <v>65.349999999999994</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
         <v>44824</v>
       </c>
       <c r="B292" t="s">
@@ -4846,8 +4846,8 @@
         <v>324.5</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
         <v>44825</v>
       </c>
       <c r="B293" t="s">
@@ -4860,8 +4860,8 @@
         <v>514.75</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
         <v>44826</v>
       </c>
       <c r="B294" t="s">
@@ -4874,8 +4874,8 @@
         <v>268.39999999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
         <v>44827</v>
       </c>
       <c r="B295" t="s">
@@ -4888,8 +4888,8 @@
         <v>1030.3</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
         <v>44827</v>
       </c>
       <c r="B296" t="s">
@@ -4902,8 +4902,8 @@
         <v>897.59</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
         <v>44827</v>
       </c>
       <c r="B297" t="s">
@@ -4916,8 +4916,8 @@
         <v>221.31</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
         <v>44830</v>
       </c>
       <c r="B298" t="s">
@@ -4930,8 +4930,8 @@
         <v>1792.9</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
         <v>44832</v>
       </c>
       <c r="B299" t="s">
@@ -4944,8 +4944,8 @@
         <v>195.3</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
         <v>44831</v>
       </c>
       <c r="B300" t="s">
@@ -4958,8 +4958,8 @@
         <v>1254.5</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
         <v>44832</v>
       </c>
       <c r="B301" t="s">
@@ -4972,8 +4972,8 @@
         <v>2202.3000000000002</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="2">
         <v>44832</v>
       </c>
       <c r="B302" t="s">
@@ -4986,8 +4986,8 @@
         <v>177.95</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="2">
         <v>44834</v>
       </c>
       <c r="B303" t="s">
@@ -5000,8 +5000,8 @@
         <v>172.7</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
         <v>44833</v>
       </c>
       <c r="B304" t="s">
@@ -5014,8 +5014,8 @@
         <v>1411.1</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
         <v>44834</v>
       </c>
       <c r="B305" t="s">
@@ -5028,8 +5028,8 @@
         <v>2772.35</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A306">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="2">
         <v>44834</v>
       </c>
       <c r="B306" t="s">
@@ -5042,8 +5042,8 @@
         <v>432.53</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A307">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="2">
         <v>44834</v>
       </c>
       <c r="B307" t="s">
@@ -5056,8 +5056,8 @@
         <v>589.64</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A308">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="2">
         <v>44834</v>
       </c>
       <c r="B308" t="s">
@@ -5070,8 +5070,8 @@
         <v>304.62</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="2">
         <v>44840</v>
       </c>
       <c r="B309" t="s">
@@ -5084,8 +5084,8 @@
         <v>3645.15</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="2">
         <v>44862</v>
       </c>
       <c r="B310" t="s">
@@ -5098,8 +5098,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A311">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
         <v>44852</v>
       </c>
       <c r="B311" t="s">
@@ -5112,8 +5112,8 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A312">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
         <v>44859</v>
       </c>
       <c r="B312" t="s">
@@ -5126,8 +5126,8 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A313">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
         <v>44865</v>
       </c>
       <c r="B313" t="s">
@@ -5140,8 +5140,8 @@
         <v>750</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A314">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
         <v>44865</v>
       </c>
       <c r="B314" t="s">
@@ -5154,8 +5154,8 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
         <v>44837</v>
       </c>
       <c r="B315" t="s">
@@ -5168,8 +5168,8 @@
         <v>1508.25</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
         <v>44838</v>
       </c>
       <c r="B316" t="s">
@@ -5182,8 +5182,8 @@
         <v>693</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A317">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
         <v>44839</v>
       </c>
       <c r="B317" t="s">
@@ -5196,8 +5196,8 @@
         <v>1223.8</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A318">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
         <v>44840</v>
       </c>
       <c r="B318" t="s">
@@ -5210,8 +5210,8 @@
         <v>511.55</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A319">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
         <v>44840</v>
       </c>
       <c r="B319" t="s">
@@ -5224,8 +5224,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
         <v>44841</v>
       </c>
       <c r="B320" t="s">
@@ -5238,8 +5238,8 @@
         <v>1273.1500000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A321">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
         <v>44841</v>
       </c>
       <c r="B321" t="s">
@@ -5252,8 +5252,8 @@
         <v>613.91999999999996</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A322">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
         <v>44841</v>
       </c>
       <c r="B322" t="s">
@@ -5266,8 +5266,8 @@
         <v>1404.29</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A323">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
         <v>44841</v>
       </c>
       <c r="B323" t="s">
@@ -5280,8 +5280,8 @@
         <v>355.75</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A324">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
         <v>44844</v>
       </c>
       <c r="B324" t="s">
@@ -5294,8 +5294,8 @@
         <v>655.45</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A325">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
         <v>44845</v>
       </c>
       <c r="B325" t="s">
@@ -5308,8 +5308,8 @@
         <v>162.55000000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A326">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
         <v>44846</v>
       </c>
       <c r="B326" t="s">
@@ -5322,8 +5322,8 @@
         <v>440.5</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A327">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
         <v>44847</v>
       </c>
       <c r="B327" t="s">
@@ -5336,8 +5336,8 @@
         <v>347.15</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A328">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
         <v>44848</v>
       </c>
       <c r="B328" t="s">
@@ -5350,8 +5350,8 @@
         <v>219.62</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A329">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
         <v>44848</v>
       </c>
       <c r="B329" t="s">
@@ -5364,8 +5364,8 @@
         <v>149.22999999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A330">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
         <v>44848</v>
       </c>
       <c r="B330" t="s">
@@ -5378,8 +5378,8 @@
         <v>272.23</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A331">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
         <v>44851</v>
       </c>
       <c r="B331" t="s">
@@ -5392,8 +5392,8 @@
         <v>510.95</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A332">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
         <v>44852</v>
       </c>
       <c r="B332" t="s">
@@ -5406,8 +5406,8 @@
         <v>503.5</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A333">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
         <v>44853</v>
       </c>
       <c r="B333" t="s">
@@ -5420,8 +5420,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A334">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
         <v>44854</v>
       </c>
       <c r="B334" t="s">
@@ -5434,8 +5434,8 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A335">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
         <v>44855</v>
       </c>
       <c r="B335" t="s">
@@ -5448,8 +5448,8 @@
         <v>378.3</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A336">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
         <v>44855</v>
       </c>
       <c r="B336" t="s">
@@ -5462,8 +5462,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A337">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
         <v>44855</v>
       </c>
       <c r="B337" t="s">
@@ -5476,8 +5476,8 @@
         <v>86.65</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A338">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
         <v>44855</v>
       </c>
       <c r="B338" t="s">
@@ -5490,8 +5490,8 @@
         <v>1064.55</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A339">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
         <v>44855</v>
       </c>
       <c r="B339" t="s">
@@ -5504,8 +5504,8 @@
         <v>169.2</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A340">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
         <v>44858</v>
       </c>
       <c r="B340" t="s">
@@ -5518,8 +5518,8 @@
         <v>348.85</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A341">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
         <v>44859</v>
       </c>
       <c r="B341" t="s">
@@ -5532,8 +5532,8 @@
         <v>321.95</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A342">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
         <v>44860</v>
       </c>
       <c r="B342" t="s">
@@ -5546,8 +5546,8 @@
         <v>4769.8999999999996</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A343">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
         <v>44862</v>
       </c>
       <c r="B343" t="s">
@@ -5560,8 +5560,8 @@
         <v>1973.95</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A344">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
         <v>44862</v>
       </c>
       <c r="B344" t="s">
@@ -5574,8 +5574,8 @@
         <v>442.61</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A345">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
         <v>44862</v>
       </c>
       <c r="B345" t="s">
@@ -5588,8 +5588,8 @@
         <v>149.22999999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A346">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
         <v>44865</v>
       </c>
       <c r="B346" t="s">
@@ -5617,16 +5617,16 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>3478</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5667,7 +5667,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>9492</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5772,7 +5772,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
